--- a/data/trans_dic/P24_8_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_8_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia</t>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,17 +729,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -700,57 +749,87 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,73</t>
+          <t>2,33; 12,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,71</t>
+          <t>0,95; 8,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,33</t>
+          <t>2,67; 8,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,21</t>
+          <t>2,99; 8,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,58; 14,92</t>
+          <t>7,69; 22,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,09; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 15,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 13,8</t>
+          <t>6,73; 19,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,48; 18,71</t>
+          <t>9,19; 21,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 22,12</t>
+          <t>8,19; 15,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,46</t>
+          <t>12,38; 19,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,01</t>
+          <t>16,53; 30,69</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,82</t>
+          <t>5,95; 13,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 13,92</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 11,34</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,85; 13,69</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>13,99; 24,65</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>11,74%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,62</t>
+          <t>6,31; 20,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,18</t>
+          <t>2,95; 7,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,62</t>
+          <t>3,03; 6,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,22</t>
+          <t>4,12; 10,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,03</t>
+          <t>3,85; 10,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 16,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,34</t>
+          <t>9,63; 17,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,49</t>
+          <t>9,94; 16,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,05; 20,89</t>
+          <t>9,37; 14,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,46; 12,11</t>
+          <t>10,38; 15,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 9,78</t>
+          <t>13,47; 22,51</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 14,1</t>
+          <t>9,2; 16,55</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 11,29</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 10,14</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>7,73; 11,41</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 14,56</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,56</t>
+          <t>2,23; 8,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,02</t>
+          <t>2,83; 8,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 5,41</t>
+          <t>2,31; 6,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,55</t>
+          <t>3,41; 8,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 14,81</t>
+          <t>1,94; 7,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 13,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 12,94</t>
+          <t>7,3; 15,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,99</t>
+          <t>5,73; 12,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 16,92</t>
+          <t>7,5; 12,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,18</t>
+          <t>7,85; 13,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,21</t>
+          <t>5,82; 11,73</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,3</t>
+          <t>5,55; 10,8</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 9,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 9,22</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 9,64</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 8,53</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,37</t>
+          <t>2,14; 5,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,21</t>
+          <t>2,25; 7,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,47</t>
+          <t>2,04; 5,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,04</t>
+          <t>2,16; 7,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 14,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 12,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 12,24</t>
+          <t>10,67; 14,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 14,39</t>
+          <t>7,41; 12,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,91; 18,29</t>
+          <t>7,48; 14,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 10,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,91</t>
+          <t>8,84; 15,6</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 10,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>11,0; 13,99</t>
+          <t>6,57; 9,33</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 8,95</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 9,0</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 9,83</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 7,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 6,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 5,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 7,75</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 7,6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 14,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 12,78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,5; 12,7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 14,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 16,87</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 10,05</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 9,01</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 8,77</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 10,55</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 11,9</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14531</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11567</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25989</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38027</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>59893</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31380</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>61874</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>72625</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>141611</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>147197</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>45910</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>73441</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>98614</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>179637</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>207091</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5279; 28427</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3218; 29798</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14035; 47325</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21761; 62403</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>33963; 97375</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17615; 50274</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38764; 90142</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51877; 97668</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>111007; 177174</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>106667; 198050</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>29034; 67506</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>48235; 105926</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>74332; 131514</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>143736; 222462</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>151988; 267886</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>70957</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45767</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53921</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100717</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>68037</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>95760</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>128047</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>147015</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>191515</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>184224</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>166717</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>173814</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>200936</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>292232</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>252261</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41089; 134031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27529; 73474</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36452; 77816</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66893; 163059</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>41137; 109210</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>68893; 124118</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99198; 169563</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>115318; 184404</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>156333; 230024</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>145640; 243410</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>125703; 226126</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>134421; 218032</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>158397; 246631</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>241845; 356827</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>194604; 312795</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20300</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37607</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34481</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58929</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32890</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>56210</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>64563</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>94091</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>118762</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>74860</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>76511</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>102170</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>128572</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>177691</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>107750</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10142; 39616</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20239; 59781</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19506; 53245</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37220; 89223</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16138; 61920</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38840; 81267</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>44079; 93439</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>70599; 118793</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>91358; 153631</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>52255; 105259</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>54849; 106638</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>72650; 140622</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>100712; 164749</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>137806; 217248</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>76692; 147424</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>68891</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>58292</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32113</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41304</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>261503</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>138983</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>79666</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>119707</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>330394</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>197274</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>111779</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>161011</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45144; 108069</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32541; 113664</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17314; 49453</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>23662; 77570</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>223050; 311982</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>103513; 177314</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>56426; 109229</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>87068; 153606</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>276302; 392381</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>154197; 254849</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>82037; 144340</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>124115; 204243</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>174679</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>153232</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>146504</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>197673</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>202124</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>444853</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>393466</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>393396</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>451888</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>525988</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>619532</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>546699</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>539900</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>649561</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>728113</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>129657; 245598</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>110479; 207528</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>110460; 184816</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>153283; 266547</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>154389; 260924</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>390759; 508031</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>331901; 458533</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>338218; 452069</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>399055; 510977</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>456586; 608774</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>545830; 708219</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>472929; 632834</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>484166; 612532</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>571327; 739171</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>640941; 838253</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
